--- a/fuentes/contenidos/grado08/guion10/Solicitudes_graficas_MA_08_10_CO/SolicitudGrafica_MA_08_10_CO_REC90.xlsx
+++ b/fuentes/contenidos/grado08/guion10/Solicitudes_graficas_MA_08_10_CO/SolicitudGrafica_MA_08_10_CO_REC90.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion10\Solicitudes_graficas_MA_08_10_CO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="194">
   <si>
     <t>Fecha:</t>
   </si>
@@ -605,7 +610,10 @@
     <t>Identifica características de poliedros regulares</t>
   </si>
   <si>
-    <t>MA_08_10_CO_REC_90</t>
+    <t>MA_08_10_CO_REC90</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +1916,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2155,13 +2163,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
+          <xdr:colOff>1038225</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2176,7 +2184,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2184,6 +2192,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2196,13 +2218,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1054100</xdr:colOff>
+          <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>863600</xdr:colOff>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2217,7 +2239,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2225,6 +2247,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2237,7 +2273,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2258,7 +2294,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2266,6 +2302,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2280,13 +2330,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2299,7 +2349,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2307,6 +2357,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2319,15 +2383,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2340,7 +2404,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2348,6 +2412,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2362,13 +2440,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2381,7 +2459,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2389,6 +2467,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2403,13 +2495,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2422,7 +2514,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2430,6 +2522,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2762,34 +2868,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.83203125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="29.625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="2"/>
+    <col min="14" max="15" width="10.875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2808,7 +2914,7 @@
         <v>Ubicación de la imagen en el recurso M3A</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>121</v>
@@ -2839,7 +2945,7 @@
         <v>M3A</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2849,7 +2955,7 @@
       </c>
       <c r="D3" s="87"/>
       <c r="F3" s="79">
-        <v>42423</v>
+        <v>42435</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="58"/>
@@ -2870,7 +2976,7 @@
         <v>M5A</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -2902,7 +3008,7 @@
         <v>M6A</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16" thickBot="1">
+    <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2935,7 +3041,7 @@
         <v>M7A</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2959,7 +3065,7 @@
         <v>M8A</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="24" t="s">
         <v>40</v>
@@ -2988,7 +3094,7 @@
         <v>M9B</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3015,7 +3121,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="38.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:16" ht="38.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
@@ -3055,7 +3161,7 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="178" customHeight="1">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="177.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -3067,13 +3173,15 @@
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M3A</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="63" t="s">
+        <v>193</v>
+      </c>
       <c r="E10" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_08_10_CO_REC_90_IMG01.png</v>
+        <v>MA_08_10_CO_REC90_IMG01.png</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3096,7 +3204,7 @@
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="171" customHeight="1">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
@@ -3108,13 +3216,15 @@
         <f t="shared" si="0"/>
         <v>Recurso M3A</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="63" t="s">
+        <v>193</v>
+      </c>
       <c r="E11" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_08_10_CO_REC_90_IMG02.png</v>
+        <v>MA_08_10_CO_REC90_IMG02.png</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3137,7 +3247,7 @@
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="158" customHeight="1">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="158.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
@@ -3149,13 +3259,15 @@
         <f t="shared" si="0"/>
         <v>Recurso M3A</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>193</v>
+      </c>
       <c r="E12" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_10_CO_REC_90_IMG03.png</v>
+        <v>MA_08_10_CO_REC90_IMG03.png</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3178,7 +3290,7 @@
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="150" customHeight="1">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
@@ -3190,13 +3302,15 @@
         <f t="shared" si="0"/>
         <v>Recurso M3A</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="63" t="s">
+        <v>193</v>
+      </c>
       <c r="E13" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_10_CO_REC_90_IMG04.png</v>
+        <v>MA_08_10_CO_REC90_IMG04.png</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3219,7 +3333,7 @@
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="171" customHeight="1">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
@@ -3231,13 +3345,15 @@
         <f t="shared" si="0"/>
         <v>Recurso M3A</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="63" t="s">
+        <v>193</v>
+      </c>
       <c r="E14" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_10_CO_REC_90_IMG05.png</v>
+        <v>MA_08_10_CO_REC90_IMG05.png</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3260,7 +3376,7 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="115" customHeight="1">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3295,7 +3411,7 @@
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="162" customHeight="1">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3330,7 +3446,7 @@
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="178" customHeight="1">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="177.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3365,7 +3481,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="124" customHeight="1">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3400,7 +3516,7 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="173" customHeight="1">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="173.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v/>
@@ -3435,7 +3551,7 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3470,7 +3586,7 @@
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="144" customHeight="1">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3505,7 +3621,7 @@
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="149" customHeight="1">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="149.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3540,7 +3656,7 @@
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="207" customHeight="1">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3575,7 +3691,7 @@
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="181" customHeight="1">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="180.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3610,7 +3726,7 @@
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="165" customHeight="1">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3641,7 +3757,7 @@
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" ht="190" customHeight="1">
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3672,7 +3788,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" ht="135" customHeight="1">
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3704,7 +3820,7 @@
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="138" customHeight="1">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3735,7 +3851,7 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="91" customHeight="1">
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3766,7 +3882,7 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="76" customHeight="1">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3797,7 +3913,7 @@
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="81" customHeight="1">
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3828,7 +3944,7 @@
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" ht="124" customHeight="1">
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3859,7 +3975,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="144" customHeight="1">
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3890,7 +4006,7 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" ht="69" customHeight="1">
+    <row r="34" spans="1:15" s="11" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3922,7 +4038,7 @@
       <c r="K34" s="64"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" ht="147" customHeight="1">
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3954,7 +4070,7 @@
       <c r="K35" s="65"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" ht="149" customHeight="1">
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3986,7 +4102,7 @@
       <c r="K36" s="65"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1">
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4017,7 +4133,7 @@
       <c r="J37" s="69"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" ht="113" customHeight="1">
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="113.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4048,7 +4164,7 @@
       <c r="J38" s="70"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" ht="131" customHeight="1">
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4079,7 +4195,7 @@
       <c r="J39" s="63"/>
       <c r="K39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1">
+    <row r="40" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4110,7 +4226,7 @@
       <c r="J40" s="63"/>
       <c r="K40" s="65"/>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1">
+    <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4141,7 +4257,7 @@
       <c r="J41" s="63"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1">
+    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4172,7 +4288,7 @@
       <c r="J42" s="63"/>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1">
+    <row r="43" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4203,7 +4319,7 @@
       <c r="J43" s="63"/>
       <c r="K43" s="65"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1">
+    <row r="44" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4234,7 +4350,7 @@
       <c r="J44" s="63"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1">
+    <row r="45" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4265,7 +4381,7 @@
       <c r="J45" s="63"/>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1">
+    <row r="46" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4296,7 +4412,7 @@
       <c r="J46" s="63"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1">
+    <row r="47" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4327,7 +4443,7 @@
       <c r="J47" s="63"/>
       <c r="K47" s="65"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1">
+    <row r="48" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4358,7 +4474,7 @@
       <c r="J48" s="63"/>
       <c r="K48" s="65"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1">
+    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4389,7 +4505,7 @@
       <c r="J49" s="63"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1">
+    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4420,7 +4536,7 @@
       <c r="J50" s="63"/>
       <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1">
+    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="str">
         <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v/>
@@ -4451,7 +4567,7 @@
       <c r="J51" s="63"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1">
+    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4482,7 +4598,7 @@
       <c r="J52" s="63"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="1:11" s="11" customFormat="1">
+    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4513,7 +4629,7 @@
       <c r="J53" s="63"/>
       <c r="K53" s="65"/>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1">
+    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4544,7 +4660,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1">
+    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4575,7 +4691,7 @@
       <c r="J55" s="63"/>
       <c r="K55" s="65"/>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1">
+    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4606,7 +4722,7 @@
       <c r="J56" s="63"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1">
+    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4637,7 +4753,7 @@
       <c r="J57" s="63"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1">
+    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4668,7 +4784,7 @@
       <c r="J58" s="63"/>
       <c r="K58" s="65"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1">
+    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4699,7 +4815,7 @@
       <c r="J59" s="63"/>
       <c r="K59" s="65"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1">
+    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4730,7 +4846,7 @@
       <c r="J60" s="63"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1">
+    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4761,7 +4877,7 @@
       <c r="J61" s="63"/>
       <c r="K61" s="65"/>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1">
+    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4792,7 +4908,7 @@
       <c r="J62" s="63"/>
       <c r="K62" s="65"/>
     </row>
-    <row r="63" spans="1:11" s="11" customFormat="1">
+    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4823,7 +4939,7 @@
       <c r="J63" s="63"/>
       <c r="K63" s="65"/>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1">
+    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4854,7 +4970,7 @@
       <c r="J64" s="63"/>
       <c r="K64" s="65"/>
     </row>
-    <row r="65" spans="1:11" s="11" customFormat="1">
+    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4885,7 +5001,7 @@
       <c r="J65" s="63"/>
       <c r="K65" s="65"/>
     </row>
-    <row r="66" spans="1:11" s="11" customFormat="1">
+    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4916,7 +5032,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="65"/>
     </row>
-    <row r="67" spans="1:11" s="11" customFormat="1">
+    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4947,7 +5063,7 @@
       <c r="J67" s="63"/>
       <c r="K67" s="65"/>
     </row>
-    <row r="68" spans="1:11" s="11" customFormat="1">
+    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4978,7 +5094,7 @@
       <c r="J68" s="63"/>
       <c r="K68" s="65"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1">
+    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5009,7 +5125,7 @@
       <c r="J69" s="63"/>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" s="11" customFormat="1">
+    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5040,7 +5156,7 @@
       <c r="J70" s="63"/>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" s="11" customFormat="1">
+    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5071,7 +5187,7 @@
       <c r="J71" s="63"/>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="1:11" s="11" customFormat="1">
+    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5102,7 +5218,7 @@
       <c r="J72" s="63"/>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="1:11" s="11" customFormat="1">
+    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5133,7 +5249,7 @@
       <c r="J73" s="63"/>
       <c r="K73" s="65"/>
     </row>
-    <row r="74" spans="1:11" s="11" customFormat="1">
+    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5164,7 +5280,7 @@
       <c r="J74" s="63"/>
       <c r="K74" s="65"/>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1">
+    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5195,7 +5311,7 @@
       <c r="J75" s="63"/>
       <c r="K75" s="65"/>
     </row>
-    <row r="76" spans="1:11" s="11" customFormat="1">
+    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5226,7 +5342,7 @@
       <c r="J76" s="63"/>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1">
+    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5257,7 +5373,7 @@
       <c r="J77" s="63"/>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1">
+    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5288,7 +5404,7 @@
       <c r="J78" s="63"/>
       <c r="K78" s="65"/>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1">
+    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5319,7 +5435,7 @@
       <c r="J79" s="63"/>
       <c r="K79" s="65"/>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1">
+    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5350,7 +5466,7 @@
       <c r="J80" s="63"/>
       <c r="K80" s="65"/>
     </row>
-    <row r="81" spans="1:11" s="11" customFormat="1">
+    <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5381,7 +5497,7 @@
       <c r="J81" s="63"/>
       <c r="K81" s="65"/>
     </row>
-    <row r="82" spans="1:11" s="11" customFormat="1">
+    <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5412,7 +5528,7 @@
       <c r="J82" s="63"/>
       <c r="K82" s="65"/>
     </row>
-    <row r="83" spans="1:11" s="11" customFormat="1">
+    <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="str">
         <f t="shared" ref="A83:A108" si="12">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
@@ -5443,7 +5559,7 @@
       <c r="J83" s="63"/>
       <c r="K83" s="65"/>
     </row>
-    <row r="84" spans="1:11" s="11" customFormat="1">
+    <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5474,7 +5590,7 @@
       <c r="J84" s="63"/>
       <c r="K84" s="65"/>
     </row>
-    <row r="85" spans="1:11" s="11" customFormat="1">
+    <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5505,7 +5621,7 @@
       <c r="J85" s="63"/>
       <c r="K85" s="65"/>
     </row>
-    <row r="86" spans="1:11" s="11" customFormat="1">
+    <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5536,7 +5652,7 @@
       <c r="J86" s="63"/>
       <c r="K86" s="65"/>
     </row>
-    <row r="87" spans="1:11" s="11" customFormat="1">
+    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5567,7 +5683,7 @@
       <c r="J87" s="63"/>
       <c r="K87" s="65"/>
     </row>
-    <row r="88" spans="1:11" s="11" customFormat="1">
+    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5598,7 +5714,7 @@
       <c r="J88" s="63"/>
       <c r="K88" s="65"/>
     </row>
-    <row r="89" spans="1:11" s="11" customFormat="1">
+    <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5629,7 +5745,7 @@
       <c r="J89" s="63"/>
       <c r="K89" s="65"/>
     </row>
-    <row r="90" spans="1:11" s="11" customFormat="1">
+    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5660,7 +5776,7 @@
       <c r="J90" s="63"/>
       <c r="K90" s="65"/>
     </row>
-    <row r="91" spans="1:11" s="11" customFormat="1">
+    <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5691,7 +5807,7 @@
       <c r="J91" s="63"/>
       <c r="K91" s="65"/>
     </row>
-    <row r="92" spans="1:11" s="11" customFormat="1">
+    <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5722,7 +5838,7 @@
       <c r="J92" s="63"/>
       <c r="K92" s="65"/>
     </row>
-    <row r="93" spans="1:11" s="11" customFormat="1">
+    <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5753,7 +5869,7 @@
       <c r="J93" s="63"/>
       <c r="K93" s="65"/>
     </row>
-    <row r="94" spans="1:11" s="11" customFormat="1">
+    <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5784,7 +5900,7 @@
       <c r="J94" s="63"/>
       <c r="K94" s="65"/>
     </row>
-    <row r="95" spans="1:11" s="11" customFormat="1">
+    <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5815,7 +5931,7 @@
       <c r="J95" s="63"/>
       <c r="K95" s="65"/>
     </row>
-    <row r="96" spans="1:11" s="11" customFormat="1">
+    <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5846,7 +5962,7 @@
       <c r="J96" s="63"/>
       <c r="K96" s="65"/>
     </row>
-    <row r="97" spans="1:11" s="11" customFormat="1">
+    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5877,7 +5993,7 @@
       <c r="J97" s="63"/>
       <c r="K97" s="65"/>
     </row>
-    <row r="98" spans="1:11" s="11" customFormat="1">
+    <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5908,7 +6024,7 @@
       <c r="J98" s="63"/>
       <c r="K98" s="65"/>
     </row>
-    <row r="99" spans="1:11" s="11" customFormat="1">
+    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5939,7 +6055,7 @@
       <c r="J99" s="63"/>
       <c r="K99" s="65"/>
     </row>
-    <row r="100" spans="1:11" s="11" customFormat="1">
+    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5970,7 +6086,7 @@
       <c r="J100" s="63"/>
       <c r="K100" s="65"/>
     </row>
-    <row r="101" spans="1:11" s="11" customFormat="1">
+    <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6001,7 +6117,7 @@
       <c r="J101" s="63"/>
       <c r="K101" s="65"/>
     </row>
-    <row r="102" spans="1:11" s="11" customFormat="1">
+    <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6032,7 +6148,7 @@
       <c r="J102" s="63"/>
       <c r="K102" s="65"/>
     </row>
-    <row r="103" spans="1:11" s="11" customFormat="1">
+    <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6063,7 +6179,7 @@
       <c r="J103" s="63"/>
       <c r="K103" s="65"/>
     </row>
-    <row r="104" spans="1:11" s="11" customFormat="1">
+    <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6094,7 +6210,7 @@
       <c r="J104" s="63"/>
       <c r="K104" s="65"/>
     </row>
-    <row r="105" spans="1:11" s="11" customFormat="1">
+    <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6125,7 +6241,7 @@
       <c r="J105" s="63"/>
       <c r="K105" s="65"/>
     </row>
-    <row r="106" spans="1:11" s="11" customFormat="1">
+    <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6156,7 +6272,7 @@
       <c r="J106" s="63"/>
       <c r="K106" s="65"/>
     </row>
-    <row r="107" spans="1:11" s="11" customFormat="1">
+    <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6187,7 +6303,7 @@
       <c r="J107" s="63"/>
       <c r="K107" s="65"/>
     </row>
-    <row r="108" spans="1:11" s="11" customFormat="1">
+    <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6271,25 +6387,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="22"/>
-    <col min="3" max="3" width="13.83203125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="22" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="72.125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="22"/>
+    <col min="3" max="3" width="13.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="22" customWidth="1"/>
+    <col min="5" max="7" width="10.875" style="22"/>
     <col min="8" max="11" width="11" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="22"/>
+    <col min="12" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>38</v>
       </c>
@@ -6299,7 +6415,7 @@
       <c r="E1" s="93"/>
       <c r="F1" s="94"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
@@ -6311,7 +6427,7 @@
       <c r="E2" s="97"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="60">
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
@@ -6335,7 +6451,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>44</v>
       </c>
@@ -6363,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="76" thickBot="1">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>45</v>
       </c>
@@ -6390,7 +6506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="31" thickBot="1">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>10</v>
       </c>
@@ -6412,7 +6528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="46" thickBot="1">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
@@ -6439,7 +6555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>53</v>
       </c>
@@ -6458,7 +6574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
@@ -6477,7 +6593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31" thickBot="1">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
@@ -6496,7 +6612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" s="22" t="s">
         <v>32</v>
       </c>
@@ -6507,7 +6623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I12" s="22" t="s">
         <v>37</v>
       </c>
@@ -6518,7 +6634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="s">
         <v>41</v>
       </c>
@@ -6537,7 +6653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -6554,7 +6670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>46</v>
       </c>
@@ -6572,7 +6688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67" customHeight="1">
+    <row r="16" spans="1:11" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
@@ -6596,7 +6712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>44</v>
       </c>
@@ -6617,7 +6733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="76" thickBot="1">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>48</v>
       </c>
@@ -6638,7 +6754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>10</v>
       </c>
@@ -6657,7 +6773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="61" thickBot="1">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>51</v>
       </c>
@@ -6679,7 +6795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21" s="22" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6696,122 +6812,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K22" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K23" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K24" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K25" s="22">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K26" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K27" s="22">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K28" s="22">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K29" s="22">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K30" s="22">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" s="22">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K32" s="22">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="22">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" s="22">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" s="22">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" s="22">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="22">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" s="22">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" s="22">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="22">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" s="22">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="22">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" s="22">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" s="22" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6845,19 +6961,18 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6866,21 +6981,20 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6891,19 +7005,18 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6914,19 +7027,18 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6935,13 +7047,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -6949,7 +7061,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6958,13 +7069,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1054100</xdr:colOff>
+                    <xdr:colOff>1057275</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>863600</xdr:colOff>
+                    <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -6972,7 +7083,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6981,7 +7091,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6995,11 +7105,9 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7018,22 +7126,22 @@
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="22" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="22" customWidth="1"/>
     <col min="3" max="3" width="17" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="22" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="22" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="22" customWidth="1"/>
     <col min="10" max="10" width="44.5" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="22"/>
+    <col min="11" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="107" t="s">
         <v>56</v>
       </c>
@@ -7060,7 +7168,7 @@
       </c>
       <c r="I1" s="106"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="107"/>
       <c r="B2" s="107"/>
       <c r="C2" s="107"/>
@@ -7075,7 +7183,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>69</v>
       </c>
@@ -7100,7 +7208,7 @@
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>57</v>
       </c>
@@ -7129,7 +7237,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>77</v>
       </c>
@@ -7158,7 +7266,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>58</v>
       </c>
@@ -7187,7 +7295,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>58</v>
       </c>
@@ -7212,7 +7320,7 @@
       </c>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>80</v>
       </c>
@@ -7241,7 +7349,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>82</v>
       </c>
@@ -7270,7 +7378,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>84</v>
       </c>
@@ -7299,7 +7407,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>86</v>
       </c>
@@ -7324,7 +7432,7 @@
       </c>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>89</v>
       </c>
@@ -7353,7 +7461,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
+    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>91</v>
       </c>
@@ -7382,7 +7490,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.75" customHeight="1">
+    <row r="14" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>94</v>
       </c>
@@ -7405,7 +7513,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="76" customFormat="1" ht="14.75" customHeight="1">
+    <row r="15" spans="1:10" s="76" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
         <v>96</v>
       </c>
@@ -7431,7 +7539,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.75" customHeight="1">
+    <row r="16" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
         <v>100</v>
       </c>
@@ -7459,7 +7567,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.75" customHeight="1">
+    <row r="17" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>103</v>
       </c>
@@ -7487,7 +7595,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.75" customHeight="1">
+    <row r="18" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>184</v>
       </c>
@@ -7513,7 +7621,7 @@
       <c r="I18" s="44"/>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" ht="14.75" customHeight="1">
+    <row r="19" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>137</v>
       </c>
@@ -7537,7 +7645,7 @@
       <c r="I19" s="44"/>
       <c r="J19" s="49"/>
     </row>
-    <row r="20" spans="1:10" ht="14.75" customHeight="1">
+    <row r="20" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>137</v>
       </c>
@@ -7561,7 +7669,7 @@
       <c r="I20" s="44"/>
       <c r="J20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="14.75" customHeight="1">
+    <row r="21" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>137</v>
       </c>
@@ -7585,7 +7693,7 @@
       <c r="I21" s="71"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:10" ht="14.75" customHeight="1">
+    <row r="22" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>132</v>
       </c>
@@ -7609,7 +7717,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.75" customHeight="1">
+    <row r="23" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>132</v>
       </c>
@@ -7638,7 +7746,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.75" customHeight="1">
+    <row r="24" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>134</v>
       </c>
@@ -7661,7 +7769,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="71"/>
     </row>
-    <row r="25" spans="1:10" ht="14.75" customHeight="1">
+    <row r="25" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>135</v>
       </c>
@@ -7685,7 +7793,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.75" customHeight="1">
+    <row r="26" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>135</v>
       </c>
@@ -7714,7 +7822,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.75" customHeight="1">
+    <row r="27" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>138</v>
       </c>
@@ -7738,7 +7846,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.75" customHeight="1">
+    <row r="28" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>138</v>
       </c>
@@ -7762,7 +7870,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.75" customHeight="1">
+    <row r="29" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
         <v>138</v>
       </c>
@@ -7791,7 +7899,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.75" customHeight="1">
+    <row r="30" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>139</v>
       </c>
@@ -7814,7 +7922,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:10" ht="14.75" customHeight="1">
+    <row r="31" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>140</v>
       </c>
@@ -7831,7 +7939,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:10" ht="14.75" customHeight="1">
+    <row r="32" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
         <v>141</v>
       </c>
@@ -7846,7 +7954,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9" ht="14.75" customHeight="1">
+    <row r="33" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
         <v>136</v>
       </c>
@@ -7867,7 +7975,7 @@
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9" ht="14.75" customHeight="1">
+    <row r="34" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>142</v>
       </c>
@@ -7884,7 +7992,7 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" ht="14.75" customHeight="1">
+    <row r="35" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>95</v>
       </c>
@@ -7913,7 +8021,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.75" customHeight="1">
+    <row r="36" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>95</v>
       </c>
@@ -7942,7 +8050,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.75" customHeight="1">
+    <row r="37" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
         <v>143</v>
       </c>
@@ -7965,7 +8073,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
-    <row r="38" spans="1:9" ht="14.75" customHeight="1">
+    <row r="38" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
         <v>143</v>
       </c>
@@ -7988,13 +8096,13 @@
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="50"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
         <v>108</v>
       </c>
@@ -8008,7 +8116,7 @@
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
         <v>109</v>
       </c>
@@ -8022,7 +8130,7 @@
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>110</v>
       </c>
@@ -8036,7 +8144,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
     </row>
-    <row r="44" spans="1:9" ht="30">
+    <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
         <v>111</v>
       </c>
@@ -8050,7 +8158,7 @@
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>112</v>
       </c>
@@ -8064,7 +8172,7 @@
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
-    <row r="46" spans="1:9" ht="45">
+    <row r="46" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
         <v>162</v>
       </c>
